--- a/src/main/resources/templates/RequireTemplate.xlsx
+++ b/src/main/resources/templates/RequireTemplate.xlsx
@@ -29,24 +29,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>沈凡</author>
     <author>Qinghe</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">项目管理-版本管理-测试需求版本号
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="1">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,29 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
-  <si>
-    <t>所属系统</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试需求版本号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <r>
       <t>模块路径</t>
@@ -171,11 +135,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>测试需求类型</t>
     </r>
     <r>
@@ -207,11 +166,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>设计者</t>
     </r>
     <r>
@@ -225,25 +179,13 @@
     </r>
   </si>
   <si>
-    <t>最后修改时间</t>
-  </si>
-  <si>
-    <t>最后修改人</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
     <t>需求状态</t>
   </si>
   <si>
-    <t>核心</t>
-  </si>
-  <si>
-    <t>VER3.0</t>
-  </si>
-  <si>
-    <t>根节点\SIT1</t>
+    <t>系统集成测试SIT/第1轮/E终端远程银行协议优化/如图宇航</t>
   </si>
   <si>
     <t>SIT测试一</t>
@@ -258,10 +200,7 @@
     <t>业务功能</t>
   </si>
   <si>
-    <t>沈凡</t>
-  </si>
-  <si>
-    <t>2019-01-30 16:13:25</t>
+    <t>江荷</t>
   </si>
   <si>
     <t/>
@@ -456,12 +395,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -931,12 +870,15 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1289,10 +1231,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="C1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="83.6333333333333" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1311,80 +1253,56 @@
     <col min="13" max="14" width="10.4583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="3:10">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="3:10">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/templates/RequireTemplate.xlsx
+++ b/src/main/resources/templates/RequireTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7695"/>
+    <workbookView windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="测试需求" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>Qinghe</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -107,6 +107,11 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>模块路径</t>
     </r>
     <r>
@@ -121,6 +126,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>需求点概述</t>
     </r>
     <r>
@@ -135,6 +145,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>测试需求类型</t>
     </r>
     <r>
@@ -152,6 +167,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>分析方法</t>
     </r>
     <r>
@@ -166,6 +186,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>设计者</t>
     </r>
     <r>
@@ -1231,77 +1256,76 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:J2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="83.6333333333333" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="83.6333333333333" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="15.175" customWidth="1"/>
-    <col min="3" max="3" width="33.9083333333333" customWidth="1"/>
-    <col min="4" max="4" width="28.9083333333333" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="7.45833333333333" customWidth="1"/>
-    <col min="7" max="7" width="8.26666666666667" customWidth="1"/>
-    <col min="8" max="8" width="6.725" customWidth="1"/>
-    <col min="9" max="9" width="16.3666666666667" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="18.6333333333333" customWidth="1"/>
-    <col min="12" max="12" width="7.45833333333333" customWidth="1"/>
-    <col min="13" max="14" width="10.4583333333333" customWidth="1"/>
+    <col min="1" max="1" width="33.9083333333333" customWidth="1"/>
+    <col min="2" max="2" width="28.9083333333333" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="7.45833333333333" customWidth="1"/>
+    <col min="5" max="5" width="8.26666666666667" customWidth="1"/>
+    <col min="6" max="6" width="6.725" customWidth="1"/>
+    <col min="7" max="7" width="16.3666666666667" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="18.6333333333333" customWidth="1"/>
+    <col min="10" max="10" width="7.45833333333333" customWidth="1"/>
+    <col min="11" max="12" width="10.4583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="3:10">
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
